--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>45086</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45086</v>
+        <v>45043</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O3" t="n">
         <v>20000</v>
       </c>
-      <c r="O3" t="n">
-        <v>21000</v>
-      </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45086</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45043</v>
+        <v>45086</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,86 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>200</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1083</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>45086</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45086</v>
+        <v>45107</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O3" t="n">
         <v>20000</v>
       </c>
-      <c r="O3" t="n">
-        <v>21000</v>
-      </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45107</v>
+        <v>45043</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
         <v>19000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45086</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45107</v>
+        <v>45086</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45043</v>
+        <v>45107</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>19000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45086</v>
+        <v>45107</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45107</v>
+        <v>45086</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45107</v>
+        <v>45086</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45086</v>
+        <v>45107</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O3" t="n">
         <v>20000</v>
       </c>
-      <c r="O3" t="n">
-        <v>21000</v>
-      </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45107</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45043</v>
+        <v>45107</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>19000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>45107</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45086</v>
+        <v>45043</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O3" t="n">
         <v>20000</v>
       </c>
-      <c r="O3" t="n">
-        <v>21000</v>
-      </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45107</v>
+        <v>45086</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45107</v>
+        <v>45086</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45086</v>
+        <v>45107</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O4" t="n">
         <v>20000</v>
       </c>
-      <c r="O4" t="n">
-        <v>21000</v>
-      </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45086</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45043</v>
+        <v>45107</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>19000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45107</v>
+        <v>45086</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>45086</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45107</v>
+        <v>45043</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
         <v>19000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45086</v>
+        <v>45107</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O4" t="n">
         <v>20000</v>
       </c>
-      <c r="O4" t="n">
-        <v>21000</v>
-      </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45043</v>
+        <v>45107</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>19000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45107</v>
+        <v>45043</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
         <v>19000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45086</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45043</v>
+        <v>45086</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
